--- a/scripts/String_04052016Final-BT-Final.xlsx
+++ b/scripts/String_04052016Final-BT-Final.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\raul.soares\Desktop\O-25596\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stark\Documents\Epitrack\guardioes_da_saude\develop\guardioes-da-saude\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4599" uniqueCount="4130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4886" uniqueCount="4413">
   <si>
     <t>Português</t>
   </si>
@@ -12414,6 +12414,936 @@
   </si>
   <si>
     <t>زيمبابوي</t>
+  </si>
+  <si>
+    <t>Todo dia é dia de combater o Aedes aegypti</t>
+  </si>
+  <si>
+    <t>Every day is a day of combat Aedes aegypti</t>
+  </si>
+  <si>
+    <t>Cada día es un día de combate Aedes aegypti</t>
+  </si>
+  <si>
+    <t>每一天都是戰鬥埃及伊蚊的一天</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+كل يوم هو يوم للقتال الزاعجة المصرية</t>
+  </si>
+  <si>
+    <t>Каждый день это день боевого комар жёлтолихорадочный</t>
+  </si>
+  <si>
+    <t>Chaque jour est un jour de combat Aedes aegypti</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Click to learn more</t>
+  </si>
+  <si>
+    <t>Clique para saber mais</t>
+  </si>
+  <si>
+    <t>Haga clic para obtener más información</t>
+  </si>
+  <si>
+    <t>點擊了解更多</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+انقر لمعرفة المزيد</t>
+  </si>
+  <si>
+    <t>Нажмите, чтобы узнать больше</t>
+  </si>
+  <si>
+    <t>Cliquez ici pour en savoir plus</t>
+  </si>
+  <si>
+    <t>Um mosquito não é mais forte que um país inteiro.</t>
+  </si>
+  <si>
+    <t>A mosquito is not stronger than an entire country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un mosquito no es más fuerte que todo un país.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+蚊子是不是比整個國家更強大。</t>
+  </si>
+  <si>
+    <t>والبعوض ليست أقوى من بلد بأكمله.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Комар не сильнее целой страны.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Un moustique est pas plus fort que tout un pays.</t>
+  </si>
+  <si>
+    <t>Atenção</t>
+  </si>
+  <si>
+    <t>Attention</t>
+  </si>
+  <si>
+    <t>precaución</t>
+  </si>
+  <si>
+    <t>警告</t>
+  </si>
+  <si>
+    <t>الحذر</t>
+  </si>
+  <si>
+    <t>осторожность</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+prudence</t>
+  </si>
+  <si>
+    <t>opcional</t>
+  </si>
+  <si>
+    <t>optional</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+自選</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+اختياري</t>
+  </si>
+  <si>
+    <t>необязательный</t>
+  </si>
+  <si>
+    <t>optionnel</t>
+  </si>
+  <si>
+    <t>Ajude a melhorar a saúde da sua comunidade.</t>
+  </si>
+  <si>
+    <t>Help improve the health of your community.</t>
+  </si>
+  <si>
+    <t>Ayudar a mejorar la salud de su comunidad.</t>
+  </si>
+  <si>
+    <t>幫助您提高市民的健康。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+تساعد على تحسين صحة مجتمعك.</t>
+  </si>
+  <si>
+    <t>Помогите улучшить здоровье вашего сообщества.</t>
+  </si>
+  <si>
+    <t>Aider à améliorer la santé de votre collectivité.</t>
+  </si>
+  <si>
+    <t>Continuar no site</t>
+  </si>
+  <si>
+    <t>Continue on the site</t>
+  </si>
+  <si>
+    <t>Continuar en el sitio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+繼續在網站上</t>
+  </si>
+  <si>
+    <t>تواصل على الموقع</t>
+  </si>
+  <si>
+    <t>Продолжить на сайте</t>
+  </si>
+  <si>
+    <t>Continuer sur le site</t>
+  </si>
+  <si>
+    <t>Complete suas informações para efetuar o cadastro</t>
+  </si>
+  <si>
+    <t>Sua conta foi reativada com sucesso, agora você poderá fazer login normalmente.</t>
+  </si>
+  <si>
+    <t>Obrigado pela sua contribuição</t>
+  </si>
+  <si>
+    <t>Para contribuir ativamente com a vigilância em saúde no Brasil é necessário que você compartilhe a sua localização</t>
+  </si>
+  <si>
+    <t>Não compartilhar implicará no mau funcionamento do Guardiões da Saúde</t>
+  </si>
+  <si>
+    <t>Como permitir sua localização</t>
+  </si>
+  <si>
+    <t>Painel de Controle</t>
+  </si>
+  <si>
+    <t>Mapa</t>
+  </si>
+  <si>
+    <t>Adicionar Integrante do Domicílio</t>
+  </si>
+  <si>
+    <t>Estado de origem</t>
+  </si>
+  <si>
+    <t>Qual país</t>
+  </si>
+  <si>
+    <t>Foi enviada uma mensagem para o email , siga as instruções enviadas para recuperar sua senha.</t>
+  </si>
+  <si>
+    <t>Crie uma nova senha para sua conta</t>
+  </si>
+  <si>
+    <t>Sua senha precisa ter no mínimo 6 dígitos</t>
+  </si>
+  <si>
+    <t>Trocar senha</t>
+  </si>
+  <si>
+    <t>Informações</t>
+  </si>
+  <si>
+    <t>Sugestões</t>
+  </si>
+  <si>
+    <t>Reclamações</t>
+  </si>
+  <si>
+    <t>Elogios</t>
+  </si>
+  <si>
+    <t>Serviço/Solicitações</t>
+  </si>
+  <si>
+    <t>Frequência</t>
+  </si>
+  <si>
+    <t>Relação de participação do mês</t>
+  </si>
+  <si>
+    <t>Mês</t>
+  </si>
+  <si>
+    <t>Não há dados para suficientes. Participe agora!</t>
+  </si>
+  <si>
+    <t>Carregando</t>
+  </si>
+  <si>
+    <t>Quer maiores detalhes dos dados?</t>
+  </si>
+  <si>
+    <t>Eu Faço a Minha Parte</t>
+  </si>
+  <si>
+    <t>Bem vindo ao Dicas de Saúde</t>
+  </si>
+  <si>
+    <t>Aqui você poderá pesquisar informações importantes para o seu bem estar</t>
+  </si>
+  <si>
+    <t>Política de Privacidade e Termos de Uso</t>
+  </si>
+  <si>
+    <t>anos</t>
+  </si>
+  <si>
+    <t>Participação</t>
+  </si>
+  <si>
+    <t>Complete your information to complete the registration</t>
+  </si>
+  <si>
+    <t>Completar su información para completar el registro</t>
+  </si>
+  <si>
+    <t>填寫您的信息，以完成註冊</t>
+  </si>
+  <si>
+    <t>استكمال المعلومات الخاصة بك لإكمال التسجيل</t>
+  </si>
+  <si>
+    <t>Заполните информацию для завершения регистрации</t>
+  </si>
+  <si>
+    <t>Complétez votre information pour terminer l'enregistrement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Your account has been reactivated successfully, you can now log in as normal.</t>
+  </si>
+  <si>
+    <t>Su cuenta ha sido reactivada con éxito, ahora puede conectarse de forma normal.</t>
+  </si>
+  <si>
+    <t>您的帳戶已重新啟動成功，你現在可以登錄正常</t>
+  </si>
+  <si>
+    <t>تم تفعيل حسابك بنجاح، يمكنك الآن تسجيل الدخول كالمعتاد.</t>
+  </si>
+  <si>
+    <t>Ваша учетная запись была возобновлена успешно, теперь вы можете войти в обычном режиме.</t>
+  </si>
+  <si>
+    <t>Votre compte a été réactivé avec succès, vous pouvez maintenant vous connecter en tant normal.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Thank you for your contribution</t>
+  </si>
+  <si>
+    <t>Gracias por su contribución</t>
+  </si>
+  <si>
+    <t>感謝您的貢獻</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+شكرا لمساهمتك</t>
+  </si>
+  <si>
+    <t>Благодарим Вас за Ваш вклад</t>
+  </si>
+  <si>
+    <t>Nous vous remercions de votre contribution</t>
+  </si>
+  <si>
+    <t>To actively contribute to the health surveillance in Brazil you need to share your location</t>
+  </si>
+  <si>
+    <t>Para contribuir activamente a la vigilancia de la salud en Brasil tiene que compartir su ubicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+إلى المساهمة بنشاط في المراقبة الصحية في البرازيل تحتاج إلى مشاركة موقعك</t>
+  </si>
+  <si>
+    <t>要積極促進在巴西，你需要分享你的位置的衛生監督</t>
+  </si>
+  <si>
+    <t>Для того, чтобы активно участвовать в наблюдения за состоянием здоровья в Бразилии, Вы должны сообщить о своем местоположении</t>
+  </si>
+  <si>
+    <t>Pour contribuer activement à la surveillance de la santé au Brésil vous devez partager votre position</t>
+  </si>
+  <si>
+    <t>Do not share result in the malfunction of the Health Guardians</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+No comparta resultado en el mal funcionamiento de los Guardianes de la Salud</t>
+  </si>
+  <si>
+    <t>不要在衛生監護人的故障分享結果</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+لا نشارك النتيجة في عطل من حراس الصحة</t>
+  </si>
+  <si>
+    <t>Не делите результат в неисправности Стражи здоровья</t>
+  </si>
+  <si>
+    <t>Ne pas partager les résultats dans le dysfonctionnement des Gardiens de la santé</t>
+  </si>
+  <si>
+    <t>Allowing your location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Lo que permite su ubicación</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+讓你的位置</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+السماح موقعك</t>
+  </si>
+  <si>
+    <t>С учетом вашего местоположения</t>
+  </si>
+  <si>
+    <t>Permettre à votre emplacement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Control panel</t>
+  </si>
+  <si>
+    <t>Panel de control</t>
+  </si>
+  <si>
+    <t>控制面板</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+لوحة التحكم</t>
+  </si>
+  <si>
+    <t>Пульт управления</t>
+  </si>
+  <si>
+    <t>Panneau de configuration</t>
+  </si>
+  <si>
+    <t>Map</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Mapa</t>
+  </si>
+  <si>
+    <t>地圖</t>
+  </si>
+  <si>
+    <t>خريطة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+карта</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Carte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Add Member of Domicile</t>
+  </si>
+  <si>
+    <t>Añadir miembro del domicilio</t>
+  </si>
+  <si>
+    <t>添加住所會員</t>
+  </si>
+  <si>
+    <t>إضافة عضو من الموطن</t>
+  </si>
+  <si>
+    <t>Добавить член домицилия</t>
+  </si>
+  <si>
+    <t>Ajouter un membre de domicile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+State</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Estado</t>
+  </si>
+  <si>
+    <t>狀態</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+دولة</t>
+  </si>
+  <si>
+    <t>Состояние</t>
+  </si>
+  <si>
+    <t>État</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Which country</t>
+  </si>
+  <si>
+    <t>Cual país</t>
+  </si>
+  <si>
+    <t>哪個國家</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+أي بلد</t>
+  </si>
+  <si>
+    <t>в какой стране</t>
+  </si>
+  <si>
+    <t>Quel pays</t>
+  </si>
+  <si>
+    <t>A message to the e-mail was sent, follow the instructions sent to retrieve your password.</t>
+  </si>
+  <si>
+    <t>Un mensaje a la dirección de e-mail fue enviado, siga las instrucciones enviadas para recuperar su contraseña.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+被發送到電子郵件的消息，按照發送找回密碼的說明。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+تم إرسال رسالة على البريد الإلكتروني، اتبع التعليمات المرسلة لاسترداد كلمة المرور الخاصة بك.</t>
+  </si>
+  <si>
+    <t>сообщение по электронной почте было отправлено, следуйте инструкциям, отправленным для получения пароля.</t>
+  </si>
+  <si>
+    <t>Un message à l'adresse e-mail a été envoyé, suivez les instructions envoyées pour récupérer votre mot de passe.</t>
+  </si>
+  <si>
+    <t>Create a new password for your account</t>
+  </si>
+  <si>
+    <t>Crear una nueva contraseña para su cuenta</t>
+  </si>
+  <si>
+    <t>創建一個新的帳戶密碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+إنشاء كلمة مرور جديدة لحسابك</t>
+  </si>
+  <si>
+    <t>Создайте новый пароль для вашей учетной записи</t>
+  </si>
+  <si>
+    <t>Créer un nouveau mot de passe pour votre compte</t>
+  </si>
+  <si>
+    <t>Your password must be at least 6 digits</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+La contraseña debe tener al menos 6 dígitos</t>
+  </si>
+  <si>
+    <t>您的密碼必須至少6位數</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+يجب أن تكون كلمة المرور الخاصة بك لا يقل عن 6 ارقام</t>
+  </si>
+  <si>
+    <t>Ваш пароль должен быть не менее 6 цифр</t>
+  </si>
+  <si>
+    <t>Votre mot de passe doit être d'au moins 6 chiffres</t>
+  </si>
+  <si>
+    <t>Change Password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cambio de contraseña</t>
+  </si>
+  <si>
+    <t>更改密碼</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+تغيير كلمة المرور</t>
+  </si>
+  <si>
+    <t>изменение пароля</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Changement mot de passe</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Information</t>
+  </si>
+  <si>
+    <t>Información</t>
+  </si>
+  <si>
+    <t>信息</t>
+  </si>
+  <si>
+    <t>معلومات</t>
+  </si>
+  <si>
+    <t>информация</t>
+  </si>
+  <si>
+    <t>Information</t>
+  </si>
+  <si>
+    <t>Suggestions</t>
+  </si>
+  <si>
+    <t>Sugerencias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+建議</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+اقتراحات</t>
+  </si>
+  <si>
+    <t>предложения</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Suggestions</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Claims</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Quejas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+投訴</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+الشكاوى</t>
+  </si>
+  <si>
+    <t>жалобы</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Plaintes</t>
+  </si>
+  <si>
+    <t>Compliments</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cumplidos</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+讚美</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+المجاملات</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+поздравление</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Compliments</t>
+  </si>
+  <si>
+    <t>Service / Requests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Las solicitudes de servicio</t>
+  </si>
+  <si>
+    <t>服務/採購信息</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+الخدمة / طلبات</t>
+  </si>
+  <si>
+    <t>Услуги / Запросы</t>
+  </si>
+  <si>
+    <t>Services / Demandes</t>
+  </si>
+  <si>
+    <t>Frequency</t>
+  </si>
+  <si>
+    <t>Frecuencia</t>
+  </si>
+  <si>
+    <t>頻率</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+تردد</t>
+  </si>
+  <si>
+    <t>частота</t>
+  </si>
+  <si>
+    <t>Fréquence</t>
+  </si>
+  <si>
+    <t>Month participation ratio</t>
+  </si>
+  <si>
+    <t>Tasa de participación Mes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+本月參與率</t>
+  </si>
+  <si>
+    <t>نسبة المشاركة أشهر</t>
+  </si>
+  <si>
+    <t>Коэффициент участия месяц</t>
+  </si>
+  <si>
+    <t>Mois taux de participation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Month</t>
+  </si>
+  <si>
+    <t>Mes</t>
+  </si>
+  <si>
+    <t>月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+شهر</t>
+  </si>
+  <si>
+    <t>месяц</t>
+  </si>
+  <si>
+    <t>Mois</t>
+  </si>
+  <si>
+    <t>No data to enough. Join now!</t>
+  </si>
+  <si>
+    <t>No hay datos que suficiente. Únete ahora!</t>
+  </si>
+  <si>
+    <t>沒有數據就夠了。現在加入！</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+لا توجد بيانات لما يكفي. اشترك الآن!</t>
+  </si>
+  <si>
+    <t>Нет данных достаточно. Присоединяйтесь!</t>
+  </si>
+  <si>
+    <t>Pas de données suffisantes. Inscris-toi maintenant!</t>
+  </si>
+  <si>
+    <t>Loading</t>
+  </si>
+  <si>
+    <t>Cargando</t>
+  </si>
+  <si>
+    <t>加載</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+تحميل</t>
+  </si>
+  <si>
+    <t>загрузка</t>
+  </si>
+  <si>
+    <t>Chargement</t>
+  </si>
+  <si>
+    <t>Want more details of the data?</t>
+  </si>
+  <si>
+    <t>¿Quieres más detalles de los datos?</t>
+  </si>
+  <si>
+    <t>Хотите более подробную информацию о данных?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+هل تريد المزيد من تفاصيل البيانات؟</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Vous voulez plus de détails sur les données?</t>
+  </si>
+  <si>
+    <t>I Do My Part</t>
+  </si>
+  <si>
+    <t>Hago mi parte</t>
+  </si>
+  <si>
+    <t>我做我的第一部分</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+هل أنا من جهتي</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Я выполню свою часть</t>
+  </si>
+  <si>
+    <t>Welcome to Health Tips</t>
+  </si>
+  <si>
+    <t>Bienvenido a Consejos de Salud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+要的數據的詳細信息
+要的數據的詳細信息</t>
+  </si>
+  <si>
+    <t>歡迎到健康小貼士</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+مرحبا بكم في نصائح صحية</t>
+  </si>
+  <si>
+    <t>Добро пожаловать в Советы для здоровья</t>
+  </si>
+  <si>
+    <t>Bienvenue sur Conseils santé</t>
+  </si>
+  <si>
+    <t>Here you can find important information for your wellbeing</t>
+  </si>
+  <si>
+    <t>Aquí puede encontrar información importante para su bienestar</t>
+  </si>
+  <si>
+    <t>在這裡，你可以找到你的幸福的重要信息</t>
+  </si>
+  <si>
+    <t>هنا يمكنك العثور على معلومات هامة لصحتك</t>
+  </si>
+  <si>
+    <t>Здесь вы можете найти важную информацию для вашего благополучия</t>
+  </si>
+  <si>
+    <t>Ici vous pouvez trouver des informations importantes pour votre bien-être</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Privacy Policy and Terms of Use</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Política de Privacidad y Condiciones de Uso</t>
+  </si>
+  <si>
+    <t>隱私政策和使用條款</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+سياسة الخصوصية وشروط الاستخدام</t>
+  </si>
+  <si>
+    <t>Политика конфиденциальности и условия использования</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Politique de confidentialité et Conditions d'utilisation</t>
+  </si>
+  <si>
+    <t>years</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+años</t>
+  </si>
+  <si>
+    <t>歲月</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+سنوات</t>
+  </si>
+  <si>
+    <t>лет</t>
+  </si>
+  <si>
+    <t>ans</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Participation</t>
+  </si>
+  <si>
+    <t>Participación</t>
+  </si>
+  <si>
+    <t>مشاركة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+участие</t>
+  </si>
+  <si>
+    <t>Nível</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Nivel</t>
+  </si>
+  <si>
+    <t>水平</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+مستوى</t>
+  </si>
+  <si>
+    <t>уровень</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Niveau</t>
+  </si>
+  <si>
+    <t>Participações nos últimos dias</t>
+  </si>
+  <si>
+    <t>Participation in last days</t>
+  </si>
+  <si>
+    <t>La participación en los últimos días</t>
+  </si>
+  <si>
+    <t>參加最後的日子</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+المشاركة في الأيام الأخيرة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Участие в последние дни</t>
+  </si>
+  <si>
+    <t>Participation à derniers jours</t>
   </si>
 </sst>
 </file>
@@ -12784,10 +13714,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G657"/>
+  <sheetPr codeName="Plan1"/>
+  <dimension ref="A1:G698"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="99" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2:G657"/>
+    <sheetView tabSelected="1" topLeftCell="B693" zoomScale="99" workbookViewId="0">
+      <selection activeCell="H698" sqref="H698"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.75" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -12848,7 +13779,7 @@
         <v>1234</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>98</v>
       </c>
@@ -12871,7 +13802,7 @@
         <v>1235</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="362.25" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>350</v>
       </c>
@@ -12894,7 +13825,7 @@
         <v>1236</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>63</v>
       </c>
@@ -12917,7 +13848,7 @@
         <v>1237</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>62</v>
       </c>
@@ -12940,7 +13871,7 @@
         <v>1238</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>211</v>
       </c>
@@ -12963,7 +13894,7 @@
         <v>1239</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>110</v>
       </c>
@@ -12986,7 +13917,7 @@
         <v>1240</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>636</v>
       </c>
@@ -13101,7 +14032,7 @@
         <v>1245</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>38</v>
       </c>
@@ -13124,7 +14055,7 @@
         <v>1246</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>89</v>
       </c>
@@ -13170,7 +14101,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>522</v>
       </c>
@@ -13216,7 +14147,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>659</v>
       </c>
@@ -13308,7 +14239,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="330.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>305</v>
       </c>
@@ -13354,7 +14285,7 @@
         <v>1254</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>119</v>
       </c>
@@ -13377,7 +14308,7 @@
         <v>1255</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>133</v>
       </c>
@@ -13446,7 +14377,7 @@
         <v>1258</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>313</v>
       </c>
@@ -13538,7 +14469,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>355</v>
       </c>
@@ -13561,7 +14492,7 @@
         <v>1261</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>189</v>
       </c>
@@ -13607,7 +14538,7 @@
         <v>1263</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>60</v>
       </c>
@@ -13630,7 +14561,7 @@
         <v>1264</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>190</v>
       </c>
@@ -13676,7 +14607,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>568</v>
       </c>
@@ -13791,7 +14722,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>109</v>
       </c>
@@ -13814,7 +14745,7 @@
         <v>1270</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>148</v>
       </c>
@@ -13837,7 +14768,7 @@
         <v>1271</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A46" s="3" t="s">
         <v>296</v>
       </c>
@@ -13883,7 +14814,7 @@
         <v>1273</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A48" s="3" t="s">
         <v>82</v>
       </c>
@@ -13906,7 +14837,7 @@
         <v>1274</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A49" s="3" t="s">
         <v>143</v>
       </c>
@@ -13929,7 +14860,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A50" s="3" t="s">
         <v>136</v>
       </c>
@@ -14320,7 +15251,7 @@
         <v>1287</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A67" s="3" t="s">
         <v>341</v>
       </c>
@@ -14343,7 +15274,7 @@
         <v>1288</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="173.25" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A68" s="3" t="s">
         <v>592</v>
       </c>
@@ -14366,7 +15297,7 @@
         <v>1289</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A69" s="3" t="s">
         <v>318</v>
       </c>
@@ -14481,7 +15412,7 @@
         <v>1294</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" s="3" t="s">
         <v>270</v>
       </c>
@@ -14504,7 +15435,7 @@
         <v>1295</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" s="3" t="s">
         <v>271</v>
       </c>
@@ -14527,7 +15458,7 @@
         <v>1296</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" s="3" t="s">
         <v>273</v>
       </c>
@@ -14550,7 +15481,7 @@
         <v>1297</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" s="3" t="s">
         <v>272</v>
       </c>
@@ -14619,7 +15550,7 @@
         <v>1300</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" s="3" t="s">
         <v>368</v>
       </c>
@@ -14757,7 +15688,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86" s="3" t="s">
         <v>372</v>
       </c>
@@ -14849,7 +15780,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A90" s="3" t="s">
         <v>195</v>
       </c>
@@ -14872,7 +15803,7 @@
         <v>1306</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91" s="3" t="s">
         <v>35</v>
       </c>
@@ -14895,7 +15826,7 @@
         <v>1307</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A92" s="3" t="s">
         <v>319</v>
       </c>
@@ -14918,7 +15849,7 @@
         <v>1308</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A93" s="3" t="s">
         <v>31</v>
       </c>
@@ -14941,7 +15872,7 @@
         <v>1309</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A94" s="3" t="s">
         <v>77</v>
       </c>
@@ -15056,7 +15987,7 @@
         <v>1313</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99" s="3" t="s">
         <v>601</v>
       </c>
@@ -15079,7 +16010,7 @@
         <v>1314</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100" s="3" t="s">
         <v>602</v>
       </c>
@@ -15102,7 +16033,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A101" s="4" t="s">
         <v>85</v>
       </c>
@@ -15286,7 +16217,7 @@
         <v>1321</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109" s="3" t="s">
         <v>604</v>
       </c>
@@ -15332,7 +16263,7 @@
         <v>1323</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111" s="3" t="s">
         <v>605</v>
       </c>
@@ -15355,7 +16286,7 @@
         <v>1324</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112" s="3" t="s">
         <v>533</v>
       </c>
@@ -15378,7 +16309,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A113" s="3" t="s">
         <v>291</v>
       </c>
@@ -15447,7 +16378,7 @@
         <v>1328</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A116" s="3" t="s">
         <v>197</v>
       </c>
@@ -15493,7 +16424,7 @@
         <v>1330</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A118" s="3" t="s">
         <v>637</v>
       </c>
@@ -15516,7 +16447,7 @@
         <v>1331</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A119" s="3" t="s">
         <v>130</v>
       </c>
@@ -15539,7 +16470,7 @@
         <v>1332</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A120" s="3" t="s">
         <v>36</v>
       </c>
@@ -15562,7 +16493,7 @@
         <v>1333</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A121" s="3" t="s">
         <v>292</v>
       </c>
@@ -15585,7 +16516,7 @@
         <v>1334</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A122" s="3" t="s">
         <v>194</v>
       </c>
@@ -15608,7 +16539,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A123" s="3" t="s">
         <v>301</v>
       </c>
@@ -15677,7 +16608,7 @@
         <v>1337</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A126" s="3" t="s">
         <v>185</v>
       </c>
@@ -15746,7 +16677,7 @@
         <v>1340</v>
       </c>
     </row>
-    <row r="129" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="3" t="s">
         <v>392</v>
       </c>
@@ -15769,7 +16700,7 @@
         <v>1341</v>
       </c>
     </row>
-    <row r="130" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="3" t="s">
         <v>390</v>
       </c>
@@ -15861,7 +16792,7 @@
         <v>1345</v>
       </c>
     </row>
-    <row r="134" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A134" s="3" t="s">
         <v>141</v>
       </c>
@@ -15884,7 +16815,7 @@
         <v>1346</v>
       </c>
     </row>
-    <row r="135" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="5" t="s">
         <v>58</v>
       </c>
@@ -15907,7 +16838,7 @@
         <v>1347</v>
       </c>
     </row>
-    <row r="136" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A136" s="3" t="s">
         <v>65</v>
       </c>
@@ -15930,7 +16861,7 @@
         <v>1348</v>
       </c>
     </row>
-    <row r="137" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="3" t="s">
         <v>469</v>
       </c>
@@ -15953,7 +16884,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="138" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="3" t="s">
         <v>470</v>
       </c>
@@ -15999,7 +16930,7 @@
         <v>1351</v>
       </c>
     </row>
-    <row r="140" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="3" t="s">
         <v>638</v>
       </c>
@@ -16137,7 +17068,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="146" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A146" s="3" t="s">
         <v>54</v>
       </c>
@@ -16160,7 +17091,7 @@
         <v>1355</v>
       </c>
     </row>
-    <row r="147" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A147" s="3" t="s">
         <v>61</v>
       </c>
@@ -16229,7 +17160,7 @@
         <v>1358</v>
       </c>
     </row>
-    <row r="150" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A150" s="3" t="s">
         <v>112</v>
       </c>
@@ -16275,7 +17206,7 @@
         <v>1360</v>
       </c>
     </row>
-    <row r="152" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="3" t="s">
         <v>87</v>
       </c>
@@ -16298,7 +17229,7 @@
         <v>1361</v>
       </c>
     </row>
-    <row r="153" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A153" s="3" t="s">
         <v>111</v>
       </c>
@@ -16344,7 +17275,7 @@
         <v>1363</v>
       </c>
     </row>
-    <row r="155" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A155" s="3" t="s">
         <v>122</v>
       </c>
@@ -16367,7 +17298,7 @@
         <v>1364</v>
       </c>
     </row>
-    <row r="156" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A156" s="3" t="s">
         <v>180</v>
       </c>
@@ -16390,7 +17321,7 @@
         <v>1365</v>
       </c>
     </row>
-    <row r="157" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A157" s="3" t="s">
         <v>88</v>
       </c>
@@ -16459,7 +17390,7 @@
         <v>1368</v>
       </c>
     </row>
-    <row r="160" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A160" s="3" t="s">
         <v>21</v>
       </c>
@@ -16528,7 +17459,7 @@
         <v>1371</v>
       </c>
     </row>
-    <row r="163" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
       <c r="A163" s="3" t="s">
         <v>149</v>
       </c>
@@ -16574,7 +17505,7 @@
         <v>1373</v>
       </c>
     </row>
-    <row r="165" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
         <v>19</v>
       </c>
@@ -16597,7 +17528,7 @@
         <v>1374</v>
       </c>
     </row>
-    <row r="166" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A166" s="3" t="s">
         <v>347</v>
       </c>
@@ -16620,7 +17551,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="167" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A167" s="3" t="s">
         <v>44</v>
       </c>
@@ -16804,7 +17735,7 @@
         <v>1382</v>
       </c>
     </row>
-    <row r="175" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A175" s="3" t="s">
         <v>174</v>
       </c>
@@ -16827,7 +17758,7 @@
         <v>1383</v>
       </c>
     </row>
-    <row r="176" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A176" s="3" t="s">
         <v>170</v>
       </c>
@@ -16850,7 +17781,7 @@
         <v>1384</v>
       </c>
     </row>
-    <row r="177" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A177" s="3" t="s">
         <v>169</v>
       </c>
@@ -16873,7 +17804,7 @@
         <v>1385</v>
       </c>
     </row>
-    <row r="178" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A178" s="3" t="s">
         <v>15</v>
       </c>
@@ -16942,7 +17873,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="181" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A181" s="3" t="s">
         <v>26</v>
       </c>
@@ -16965,7 +17896,7 @@
         <v>1388</v>
       </c>
     </row>
-    <row r="182" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A182" s="3" t="s">
         <v>46</v>
       </c>
@@ -17057,7 +17988,7 @@
         <v>1392</v>
       </c>
     </row>
-    <row r="186" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A186" s="3" t="s">
         <v>104</v>
       </c>
@@ -17080,7 +18011,7 @@
         <v>1393</v>
       </c>
     </row>
-    <row r="187" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A187" s="3" t="s">
         <v>96</v>
       </c>
@@ -17149,7 +18080,7 @@
         <v>1396</v>
       </c>
     </row>
-    <row r="190" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A190" s="3" t="s">
         <v>93</v>
       </c>
@@ -17287,7 +18218,7 @@
         <v>1402</v>
       </c>
     </row>
-    <row r="196" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A196" s="3" t="s">
         <v>24</v>
       </c>
@@ -17310,7 +18241,7 @@
         <v>1403</v>
       </c>
     </row>
-    <row r="197" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A197" s="3" t="s">
         <v>208</v>
       </c>
@@ -17333,7 +18264,7 @@
         <v>1404</v>
       </c>
     </row>
-    <row r="198" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A198" s="3" t="s">
         <v>321</v>
       </c>
@@ -17356,7 +18287,7 @@
         <v>1405</v>
       </c>
     </row>
-    <row r="199" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A199" s="3" t="s">
         <v>76</v>
       </c>
@@ -17379,7 +18310,7 @@
         <v>1406</v>
       </c>
     </row>
-    <row r="200" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A200" s="3" t="s">
         <v>344</v>
       </c>
@@ -17402,7 +18333,7 @@
         <v>1407</v>
       </c>
     </row>
-    <row r="201" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A201" s="3" t="s">
         <v>28</v>
       </c>
@@ -17494,7 +18425,7 @@
         <v>1411</v>
       </c>
     </row>
-    <row r="205" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A205" s="3" t="s">
         <v>639</v>
       </c>
@@ -17517,7 +18448,7 @@
         <v>1412</v>
       </c>
     </row>
-    <row r="206" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A206" s="3" t="s">
         <v>30</v>
       </c>
@@ -17540,7 +18471,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="207" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A207" s="3" t="s">
         <v>123</v>
       </c>
@@ -17586,7 +18517,7 @@
         <v>1415</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="3" t="s">
         <v>345</v>
       </c>
@@ -17609,7 +18540,7 @@
         <v>1416</v>
       </c>
     </row>
-    <row r="210" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="3" t="s">
         <v>327</v>
       </c>
@@ -17724,7 +18655,7 @@
         <v>1421</v>
       </c>
     </row>
-    <row r="215" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A215" s="3" t="s">
         <v>25</v>
       </c>
@@ -17747,7 +18678,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="216" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A216" s="3" t="s">
         <v>186</v>
       </c>
@@ -17770,7 +18701,7 @@
         <v>1422</v>
       </c>
     </row>
-    <row r="217" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A217" s="3" t="s">
         <v>193</v>
       </c>
@@ -17793,7 +18724,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="218" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A218" s="3" t="s">
         <v>640</v>
       </c>
@@ -17839,7 +18770,7 @@
         <v>1425</v>
       </c>
     </row>
-    <row r="220" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A220" s="3" t="s">
         <v>330</v>
       </c>
@@ -17862,7 +18793,7 @@
         <v>1426</v>
       </c>
     </row>
-    <row r="221" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A221" s="3" t="s">
         <v>205</v>
       </c>
@@ -17885,7 +18816,7 @@
         <v>1427</v>
       </c>
     </row>
-    <row r="222" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A222" s="3" t="s">
         <v>128</v>
       </c>
@@ -17954,7 +18885,7 @@
         <v>1430</v>
       </c>
     </row>
-    <row r="225" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A225" s="3" t="s">
         <v>134</v>
       </c>
@@ -17977,7 +18908,7 @@
         <v>1431</v>
       </c>
     </row>
-    <row r="226" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A226" s="3" t="s">
         <v>155</v>
       </c>
@@ -18000,7 +18931,7 @@
         <v>1432</v>
       </c>
     </row>
-    <row r="227" spans="1:7" ht="346.5" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A227" s="3" t="s">
         <v>151</v>
       </c>
@@ -18023,7 +18954,7 @@
         <v>1433</v>
       </c>
     </row>
-    <row r="228" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A228" s="3" t="s">
         <v>102</v>
       </c>
@@ -18046,7 +18977,7 @@
         <v>1434</v>
       </c>
     </row>
-    <row r="229" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A229" s="3" t="s">
         <v>655</v>
       </c>
@@ -18069,7 +19000,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="230" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A230" s="3" t="s">
         <v>317</v>
       </c>
@@ -18092,7 +19023,7 @@
         <v>1436</v>
       </c>
     </row>
-    <row r="231" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A231" s="3" t="s">
         <v>176</v>
       </c>
@@ -18345,7 +19276,7 @@
         <v>1446</v>
       </c>
     </row>
-    <row r="242" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A242" s="3" t="s">
         <v>303</v>
       </c>
@@ -18368,7 +19299,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="243" spans="1:7" ht="252" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
       <c r="A243" s="4" t="s">
         <v>306</v>
       </c>
@@ -18414,7 +19345,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="245" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A245" s="3" t="s">
         <v>192</v>
       </c>
@@ -18851,7 +19782,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="264" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A264" s="3" t="s">
         <v>135</v>
       </c>
@@ -18943,7 +19874,7 @@
         <v>895</v>
       </c>
     </row>
-    <row r="268" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A268" s="3" t="s">
         <v>428</v>
       </c>
@@ -19012,7 +19943,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="271" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A271" s="3" t="s">
         <v>441</v>
       </c>
@@ -19081,7 +20012,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="274" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A274" s="3" t="s">
         <v>612</v>
       </c>
@@ -19104,7 +20035,7 @@
         <v>1467</v>
       </c>
     </row>
-    <row r="275" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A275" s="3" t="s">
         <v>613</v>
       </c>
@@ -19127,7 +20058,7 @@
         <v>1468</v>
       </c>
     </row>
-    <row r="276" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A276" s="3" t="s">
         <v>615</v>
       </c>
@@ -19150,7 +20081,7 @@
         <v>1469</v>
       </c>
     </row>
-    <row r="277" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A277" s="3" t="s">
         <v>331</v>
       </c>
@@ -19219,7 +20150,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="280" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A280" s="3" t="s">
         <v>443</v>
       </c>
@@ -19242,7 +20173,7 @@
         <v>1472</v>
       </c>
     </row>
-    <row r="281" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A281" s="3" t="s">
         <v>614</v>
       </c>
@@ -19357,7 +20288,7 @@
         <v>1477</v>
       </c>
     </row>
-    <row r="286" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A286" s="3" t="s">
         <v>403</v>
       </c>
@@ -19449,7 +20380,7 @@
         <v>1481</v>
       </c>
     </row>
-    <row r="290" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A290" s="3" t="s">
         <v>472</v>
       </c>
@@ -19541,7 +20472,7 @@
         <v>1485</v>
       </c>
     </row>
-    <row r="294" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A294" s="3" t="s">
         <v>438</v>
       </c>
@@ -19564,7 +20495,7 @@
         <v>1486</v>
       </c>
     </row>
-    <row r="295" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A295" s="3" t="s">
         <v>444</v>
       </c>
@@ -19587,7 +20518,7 @@
         <v>1487</v>
       </c>
     </row>
-    <row r="296" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A296" s="3" t="s">
         <v>421</v>
       </c>
@@ -19610,7 +20541,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="297" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A297" s="3" t="s">
         <v>497</v>
       </c>
@@ -19633,7 +20564,7 @@
         <v>1489</v>
       </c>
     </row>
-    <row r="298" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A298" s="3" t="s">
         <v>491</v>
       </c>
@@ -19656,7 +20587,7 @@
         <v>1490</v>
       </c>
     </row>
-    <row r="299" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A299" s="3" t="s">
         <v>537</v>
       </c>
@@ -19702,7 +20633,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="301" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A301" s="3" t="s">
         <v>569</v>
       </c>
@@ -19725,7 +20656,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="302" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A302" s="3" t="s">
         <v>550</v>
       </c>
@@ -19748,7 +20679,7 @@
         <v>1494</v>
       </c>
     </row>
-    <row r="303" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A303" s="3" t="s">
         <v>530</v>
       </c>
@@ -19771,7 +20702,7 @@
         <v>1495</v>
       </c>
     </row>
-    <row r="304" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A304" s="3" t="s">
         <v>529</v>
       </c>
@@ -19863,7 +20794,7 @@
         <v>1499</v>
       </c>
     </row>
-    <row r="308" spans="1:7" ht="393.75" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:7" ht="189" x14ac:dyDescent="0.25">
       <c r="A308" s="3" t="s">
         <v>302</v>
       </c>
@@ -19886,7 +20817,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="309" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A309" s="3" t="s">
         <v>294</v>
       </c>
@@ -19932,7 +20863,7 @@
         <v>1502</v>
       </c>
     </row>
-    <row r="311" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A311" s="5" t="s">
         <v>147</v>
       </c>
@@ -20162,7 +21093,7 @@
         <v>1510</v>
       </c>
     </row>
-    <row r="321" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A321" s="3" t="s">
         <v>309</v>
       </c>
@@ -20530,7 +21461,7 @@
         <v>1520</v>
       </c>
     </row>
-    <row r="337" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A337" s="3" t="s">
         <v>616</v>
       </c>
@@ -20622,7 +21553,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="341" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A341" s="3" t="s">
         <v>477</v>
       </c>
@@ -20691,7 +21622,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="344" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A344" s="3" t="s">
         <v>618</v>
       </c>
@@ -20737,7 +21668,7 @@
         <v>961</v>
       </c>
     </row>
-    <row r="346" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A346" s="3" t="s">
         <v>496</v>
       </c>
@@ -20783,7 +21714,7 @@
         <v>1528</v>
       </c>
     </row>
-    <row r="348" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A348" s="3" t="s">
         <v>490</v>
       </c>
@@ -21059,7 +21990,7 @@
         <v>1533</v>
       </c>
     </row>
-    <row r="360" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A360" s="3" t="s">
         <v>18</v>
       </c>
@@ -21105,7 +22036,7 @@
         <v>1535</v>
       </c>
     </row>
-    <row r="362" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A362" s="3" t="s">
         <v>619</v>
       </c>
@@ -21174,7 +22105,7 @@
         <v>1537</v>
       </c>
     </row>
-    <row r="365" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A365" s="3" t="s">
         <v>37</v>
       </c>
@@ -21358,7 +22289,7 @@
         <v>981</v>
       </c>
     </row>
-    <row r="373" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A373" s="3" t="s">
         <v>83</v>
       </c>
@@ -21381,7 +22312,7 @@
         <v>1543</v>
       </c>
     </row>
-    <row r="374" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A374" s="3" t="s">
         <v>597</v>
       </c>
@@ -21427,7 +22358,7 @@
         <v>1545</v>
       </c>
     </row>
-    <row r="376" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A376" s="3" t="s">
         <v>494</v>
       </c>
@@ -21473,7 +22404,7 @@
         <v>1547</v>
       </c>
     </row>
-    <row r="378" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A378" s="3" t="s">
         <v>507</v>
       </c>
@@ -21565,7 +22496,7 @@
         <v>1549</v>
       </c>
     </row>
-    <row r="382" spans="1:7" ht="283.5" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A382" s="3" t="s">
         <v>642</v>
       </c>
@@ -21634,7 +22565,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="385" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A385" s="3" t="s">
         <v>620</v>
       </c>
@@ -21703,7 +22634,7 @@
         <v>1554</v>
       </c>
     </row>
-    <row r="388" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A388" s="3" t="s">
         <v>79</v>
       </c>
@@ -21749,7 +22680,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="390" spans="1:7" ht="157.5" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A390" s="3" t="s">
         <v>67</v>
       </c>
@@ -21772,7 +22703,7 @@
         <v>1557</v>
       </c>
     </row>
-    <row r="391" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A391" s="3" t="s">
         <v>139</v>
       </c>
@@ -21795,7 +22726,7 @@
         <v>1558</v>
       </c>
     </row>
-    <row r="392" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A392" s="3" t="s">
         <v>84</v>
       </c>
@@ -21818,7 +22749,7 @@
         <v>1559</v>
       </c>
     </row>
-    <row r="393" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A393" s="3" t="s">
         <v>27</v>
       </c>
@@ -21841,7 +22772,7 @@
         <v>1560</v>
       </c>
     </row>
-    <row r="394" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A394" s="3" t="s">
         <v>78</v>
       </c>
@@ -22140,7 +23071,7 @@
         <v>1567</v>
       </c>
     </row>
-    <row r="407" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A407" s="4" t="s">
         <v>40</v>
       </c>
@@ -22163,7 +23094,7 @@
         <v>1568</v>
       </c>
     </row>
-    <row r="408" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A408" s="3" t="s">
         <v>594</v>
       </c>
@@ -22232,7 +23163,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="411" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A411" s="3" t="s">
         <v>509</v>
       </c>
@@ -22255,7 +23186,7 @@
         <v>1571</v>
       </c>
     </row>
-    <row r="412" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A412" s="3" t="s">
         <v>285</v>
       </c>
@@ -22278,7 +23209,7 @@
         <v>1572</v>
       </c>
     </row>
-    <row r="413" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A413" s="3" t="s">
         <v>519</v>
       </c>
@@ -22324,7 +23255,7 @@
         <v>1574</v>
       </c>
     </row>
-    <row r="415" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A415" s="3" t="s">
         <v>145</v>
       </c>
@@ -22347,7 +23278,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="416" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A416" s="3" t="s">
         <v>106</v>
       </c>
@@ -22370,7 +23301,7 @@
         <v>1576</v>
       </c>
     </row>
-    <row r="417" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A417" s="3" t="s">
         <v>162</v>
       </c>
@@ -22393,7 +23324,7 @@
         <v>1577</v>
       </c>
     </row>
-    <row r="418" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A418" s="3" t="s">
         <v>66</v>
       </c>
@@ -22416,7 +23347,7 @@
         <v>1578</v>
       </c>
     </row>
-    <row r="419" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A419" s="3" t="s">
         <v>315</v>
       </c>
@@ -22439,7 +23370,7 @@
         <v>1460</v>
       </c>
     </row>
-    <row r="420" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A420" s="3" t="s">
         <v>137</v>
       </c>
@@ -22462,7 +23393,7 @@
         <v>1579</v>
       </c>
     </row>
-    <row r="421" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A421" s="3" t="s">
         <v>140</v>
       </c>
@@ -22508,7 +23439,7 @@
         <v>1581</v>
       </c>
     </row>
-    <row r="423" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A423" s="3" t="s">
         <v>108</v>
       </c>
@@ -22531,7 +23462,7 @@
         <v>1582</v>
       </c>
     </row>
-    <row r="424" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A424" s="3" t="s">
         <v>8</v>
       </c>
@@ -22554,7 +23485,7 @@
         <v>1583</v>
       </c>
     </row>
-    <row r="425" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A425" s="3" t="s">
         <v>101</v>
       </c>
@@ -22692,7 +23623,7 @@
         <v>1032</v>
       </c>
     </row>
-    <row r="431" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A431" s="3" t="s">
         <v>29</v>
       </c>
@@ -22715,7 +23646,7 @@
         <v>1587</v>
       </c>
     </row>
-    <row r="432" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A432" s="3" t="s">
         <v>100</v>
       </c>
@@ -22738,7 +23669,7 @@
         <v>1588</v>
       </c>
     </row>
-    <row r="433" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A433" s="3" t="s">
         <v>42</v>
       </c>
@@ -22761,7 +23692,7 @@
         <v>1589</v>
       </c>
     </row>
-    <row r="434" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A434" s="3" t="s">
         <v>333</v>
       </c>
@@ -22807,7 +23738,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="436" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A436" s="3" t="s">
         <v>320</v>
       </c>
@@ -23014,7 +23945,7 @@
         <v>1598</v>
       </c>
     </row>
-    <row r="445" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A445" s="3" t="s">
         <v>381</v>
       </c>
@@ -23083,7 +24014,7 @@
         <v>1048</v>
       </c>
     </row>
-    <row r="448" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A448" s="3" t="s">
         <v>588</v>
       </c>
@@ -23129,7 +24060,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="450" spans="1:7" ht="189" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A450" s="3" t="s">
         <v>593</v>
       </c>
@@ -23152,7 +24083,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="451" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A451" s="3" t="s">
         <v>43</v>
       </c>
@@ -23175,7 +24106,7 @@
         <v>1603</v>
       </c>
     </row>
-    <row r="452" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A452" s="3" t="s">
         <v>661</v>
       </c>
@@ -23244,7 +24175,7 @@
         <v>1605</v>
       </c>
     </row>
-    <row r="455" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A455" s="3" t="s">
         <v>91</v>
       </c>
@@ -23267,7 +24198,7 @@
         <v>1606</v>
       </c>
     </row>
-    <row r="456" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A456" s="3" t="s">
         <v>153</v>
       </c>
@@ -23290,7 +24221,7 @@
         <v>1057</v>
       </c>
     </row>
-    <row r="457" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A457" s="3" t="s">
         <v>20</v>
       </c>
@@ -23313,7 +24244,7 @@
         <v>1607</v>
       </c>
     </row>
-    <row r="458" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A458" s="3" t="s">
         <v>293</v>
       </c>
@@ -23336,7 +24267,7 @@
         <v>1608</v>
       </c>
     </row>
-    <row r="459" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A459" s="3" t="s">
         <v>643</v>
       </c>
@@ -23359,7 +24290,7 @@
         <v>1609</v>
       </c>
     </row>
-    <row r="460" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A460" s="3" t="s">
         <v>308</v>
       </c>
@@ -23451,7 +24382,7 @@
         <v>1613</v>
       </c>
     </row>
-    <row r="464" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A464" s="3" t="s">
         <v>290</v>
       </c>
@@ -23520,7 +24451,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="467" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A467" s="3" t="s">
         <v>316</v>
       </c>
@@ -23612,7 +24543,7 @@
         <v>1070</v>
       </c>
     </row>
-    <row r="471" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A471" s="3" t="s">
         <v>7</v>
       </c>
@@ -23635,7 +24566,7 @@
         <v>1620</v>
       </c>
     </row>
-    <row r="472" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A472" s="3" t="s">
         <v>322</v>
       </c>
@@ -23658,7 +24589,7 @@
         <v>1621</v>
       </c>
     </row>
-    <row r="473" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A473" s="3" t="s">
         <v>121</v>
       </c>
@@ -23750,7 +24681,7 @@
         <v>1623</v>
       </c>
     </row>
-    <row r="477" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A477" s="3" t="s">
         <v>188</v>
       </c>
@@ -23773,7 +24704,7 @@
         <v>1624</v>
       </c>
     </row>
-    <row r="478" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A478" s="3" t="s">
         <v>97</v>
       </c>
@@ -23796,7 +24727,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="479" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A479" s="3" t="s">
         <v>34</v>
       </c>
@@ -24003,7 +24934,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="488" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A488" s="3" t="s">
         <v>595</v>
       </c>
@@ -24049,7 +24980,7 @@
         <v>1635</v>
       </c>
     </row>
-    <row r="490" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A490" s="3" t="s">
         <v>146</v>
       </c>
@@ -24187,7 +25118,7 @@
         <v>1093</v>
       </c>
     </row>
-    <row r="496" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A496" s="3" t="s">
         <v>656</v>
       </c>
@@ -24210,7 +25141,7 @@
         <v>1640</v>
       </c>
     </row>
-    <row r="497" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A497" s="3" t="s">
         <v>94</v>
       </c>
@@ -24256,7 +25187,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="499" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A499" s="3" t="s">
         <v>426</v>
       </c>
@@ -24279,7 +25210,7 @@
         <v>1643</v>
       </c>
     </row>
-    <row r="500" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A500" s="3" t="s">
         <v>332</v>
       </c>
@@ -24302,7 +25233,7 @@
         <v>1644</v>
       </c>
     </row>
-    <row r="501" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A501" s="3" t="s">
         <v>81</v>
       </c>
@@ -24371,7 +25302,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="504" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A504" s="3" t="s">
         <v>48</v>
       </c>
@@ -24440,7 +25371,7 @@
         <v>1650</v>
       </c>
     </row>
-    <row r="507" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A507" s="3" t="s">
         <v>396</v>
       </c>
@@ -24463,7 +25394,7 @@
         <v>1651</v>
       </c>
     </row>
-    <row r="508" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A508" s="3" t="s">
         <v>405</v>
       </c>
@@ -24509,7 +25440,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="510" spans="1:7" ht="220.5" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A510" s="3" t="s">
         <v>150</v>
       </c>
@@ -24532,7 +25463,7 @@
         <v>1654</v>
       </c>
     </row>
-    <row r="511" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
       <c r="A511" s="3" t="s">
         <v>196</v>
       </c>
@@ -24693,7 +25624,7 @@
         <v>1659</v>
       </c>
     </row>
-    <row r="518" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A518" s="3" t="s">
         <v>415</v>
       </c>
@@ -24762,7 +25693,7 @@
         <v>1662</v>
       </c>
     </row>
-    <row r="521" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="3" t="s">
         <v>584</v>
       </c>
@@ -24785,7 +25716,7 @@
         <v>1663</v>
       </c>
     </row>
-    <row r="522" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="3" t="s">
         <v>489</v>
       </c>
@@ -24831,7 +25762,7 @@
         <v>1664</v>
       </c>
     </row>
-    <row r="524" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="3" t="s">
         <v>625</v>
       </c>
@@ -24877,7 +25808,7 @@
         <v>1642</v>
       </c>
     </row>
-    <row r="526" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="526" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A526" s="3" t="s">
         <v>325</v>
       </c>
@@ -24900,7 +25831,7 @@
         <v>1666</v>
       </c>
     </row>
-    <row r="527" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A527" s="3" t="s">
         <v>328</v>
       </c>
@@ -24946,7 +25877,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="529" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A529" s="3" t="s">
         <v>362</v>
       </c>
@@ -24992,7 +25923,7 @@
         <v>1669</v>
       </c>
     </row>
-    <row r="531" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="3" t="s">
         <v>178</v>
       </c>
@@ -25038,7 +25969,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="533" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="3" t="s">
         <v>574</v>
       </c>
@@ -25084,7 +26015,7 @@
         <v>1672</v>
       </c>
     </row>
-    <row r="535" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="3" t="s">
         <v>377</v>
       </c>
@@ -25107,7 +26038,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="536" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A536" s="3" t="s">
         <v>468</v>
       </c>
@@ -25153,7 +26084,7 @@
         <v>1674</v>
       </c>
     </row>
-    <row r="538" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="538" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A538" s="3" t="s">
         <v>532</v>
       </c>
@@ -25245,7 +26176,7 @@
         <v>1678</v>
       </c>
     </row>
-    <row r="542" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+    <row r="542" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A542" s="3" t="s">
         <v>307</v>
       </c>
@@ -25268,7 +26199,7 @@
         <v>1679</v>
       </c>
     </row>
-    <row r="543" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="3" t="s">
         <v>14</v>
       </c>
@@ -25291,7 +26222,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="544" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="3" t="s">
         <v>161</v>
       </c>
@@ -25314,7 +26245,7 @@
         <v>1681</v>
       </c>
     </row>
-    <row r="545" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+    <row r="545" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A545" s="3" t="s">
         <v>187</v>
       </c>
@@ -25337,7 +26268,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="546" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="3" t="s">
         <v>184</v>
       </c>
@@ -25360,7 +26291,7 @@
         <v>1683</v>
       </c>
     </row>
-    <row r="547" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A547" s="3" t="s">
         <v>120</v>
       </c>
@@ -25383,7 +26314,7 @@
         <v>1684</v>
       </c>
     </row>
-    <row r="548" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="548" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A548" s="3" t="s">
         <v>92</v>
       </c>
@@ -25406,7 +26337,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="549" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A549" s="3" t="s">
         <v>652</v>
       </c>
@@ -25429,7 +26360,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="550" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="550" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A550" s="3" t="s">
         <v>90</v>
       </c>
@@ -25452,7 +26383,7 @@
         <v>1687</v>
       </c>
     </row>
-    <row r="551" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="3" t="s">
         <v>57</v>
       </c>
@@ -25475,7 +26406,7 @@
         <v>1688</v>
       </c>
     </row>
-    <row r="552" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="552" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A552" s="3" t="s">
         <v>59</v>
       </c>
@@ -25498,7 +26429,7 @@
         <v>1689</v>
       </c>
     </row>
-    <row r="553" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="553" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A553" s="3" t="s">
         <v>55</v>
       </c>
@@ -25521,7 +26452,7 @@
         <v>1690</v>
       </c>
     </row>
-    <row r="554" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="3" t="s">
         <v>191</v>
       </c>
@@ -25567,7 +26498,7 @@
         <v>1692</v>
       </c>
     </row>
-    <row r="556" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="3" t="s">
         <v>23</v>
       </c>
@@ -25590,7 +26521,7 @@
         <v>1693</v>
       </c>
     </row>
-    <row r="557" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="3" t="s">
         <v>181</v>
       </c>
@@ -25613,7 +26544,7 @@
         <v>1694</v>
       </c>
     </row>
-    <row r="558" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="558" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A558" s="3" t="s">
         <v>286</v>
       </c>
@@ -25636,7 +26567,7 @@
         <v>1695</v>
       </c>
     </row>
-    <row r="559" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="559" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A559" s="3" t="s">
         <v>287</v>
       </c>
@@ -25659,7 +26590,7 @@
         <v>1696</v>
       </c>
     </row>
-    <row r="560" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="560" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A560" s="3" t="s">
         <v>107</v>
       </c>
@@ -25682,7 +26613,7 @@
         <v>1697</v>
       </c>
     </row>
-    <row r="561" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="561" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A561" s="3" t="s">
         <v>51</v>
       </c>
@@ -25705,7 +26636,7 @@
         <v>1698</v>
       </c>
     </row>
-    <row r="562" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="562" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A562" s="3" t="s">
         <v>52</v>
       </c>
@@ -25728,7 +26659,7 @@
         <v>1699</v>
       </c>
     </row>
-    <row r="563" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="3" t="s">
         <v>348</v>
       </c>
@@ -25751,7 +26682,7 @@
         <v>1700</v>
       </c>
     </row>
-    <row r="564" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="3" t="s">
         <v>561</v>
       </c>
@@ -26004,7 +26935,7 @@
         <v>1164</v>
       </c>
     </row>
-    <row r="575" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="575" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A575" s="5" t="s">
         <v>644</v>
       </c>
@@ -26027,7 +26958,7 @@
         <v>1709</v>
       </c>
     </row>
-    <row r="576" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="3" t="s">
         <v>553</v>
       </c>
@@ -26096,7 +27027,7 @@
         <v>1711</v>
       </c>
     </row>
-    <row r="579" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="579" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A579" s="3" t="s">
         <v>650</v>
       </c>
@@ -26280,7 +27211,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="587" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="587" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A587" s="3" t="s">
         <v>651</v>
       </c>
@@ -26303,7 +27234,7 @@
         <v>1717</v>
       </c>
     </row>
-    <row r="588" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="588" spans="1:7" ht="63" x14ac:dyDescent="0.25">
       <c r="A588" s="3" t="s">
         <v>41</v>
       </c>
@@ -26372,7 +27303,7 @@
         <v>1719</v>
       </c>
     </row>
-    <row r="591" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A591" s="3" t="s">
         <v>556</v>
       </c>
@@ -26602,7 +27533,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="601" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A601" s="3" t="s">
         <v>115</v>
       </c>
@@ -26625,7 +27556,7 @@
         <v>1727</v>
       </c>
     </row>
-    <row r="602" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
+    <row r="602" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A602" s="3" t="s">
         <v>73</v>
       </c>
@@ -26671,7 +27602,7 @@
         <v>1188</v>
       </c>
     </row>
-    <row r="604" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A604" s="3" t="s">
         <v>629</v>
       </c>
@@ -26740,7 +27671,7 @@
         <v>1730</v>
       </c>
     </row>
-    <row r="607" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A607" s="3" t="s">
         <v>74</v>
       </c>
@@ -26763,7 +27694,7 @@
         <v>1731</v>
       </c>
     </row>
-    <row r="608" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="608" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A608" s="3" t="s">
         <v>454</v>
       </c>
@@ -26786,7 +27717,7 @@
         <v>1732</v>
       </c>
     </row>
-    <row r="609" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="609" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A609" s="3" t="s">
         <v>548</v>
       </c>
@@ -26855,7 +27786,7 @@
         <v>1735</v>
       </c>
     </row>
-    <row r="612" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A612" s="3" t="s">
         <v>544</v>
       </c>
@@ -27039,7 +27970,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="620" spans="1:7" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="620" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
       <c r="A620" s="3" t="s">
         <v>300</v>
       </c>
@@ -27062,7 +27993,7 @@
         <v>1741</v>
       </c>
     </row>
-    <row r="621" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="621" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A621" s="3" t="s">
         <v>295</v>
       </c>
@@ -27108,7 +28039,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="623" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A623" s="3" t="s">
         <v>329</v>
       </c>
@@ -27177,7 +28108,7 @@
         <v>1207</v>
       </c>
     </row>
-    <row r="626" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A626" s="3" t="s">
         <v>542</v>
       </c>
@@ -27223,7 +28154,7 @@
         <v>1747</v>
       </c>
     </row>
-    <row r="628" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A628" s="3" t="s">
         <v>538</v>
       </c>
@@ -27361,7 +28292,7 @@
         <v>1751</v>
       </c>
     </row>
-    <row r="634" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+    <row r="634" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A634" s="3" t="s">
         <v>297</v>
       </c>
@@ -27384,7 +28315,7 @@
         <v>1752</v>
       </c>
     </row>
-    <row r="635" spans="1:7" ht="236.25" x14ac:dyDescent="0.25">
+    <row r="635" spans="1:7" ht="126" x14ac:dyDescent="0.25">
       <c r="A635" s="3" t="s">
         <v>314</v>
       </c>
@@ -27453,7 +28384,7 @@
         <v>1215</v>
       </c>
     </row>
-    <row r="638" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A638" s="3" t="s">
         <v>534</v>
       </c>
@@ -27568,7 +28499,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="643" spans="1:7" ht="315" x14ac:dyDescent="0.25">
+    <row r="643" spans="1:7" ht="141.75" x14ac:dyDescent="0.25">
       <c r="A643" s="3" t="s">
         <v>39</v>
       </c>
@@ -27637,7 +28568,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="646" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+    <row r="646" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A646" s="3" t="s">
         <v>105</v>
       </c>
@@ -27706,7 +28637,7 @@
         <v>1762</v>
       </c>
     </row>
-    <row r="649" spans="1:7" ht="204.75" x14ac:dyDescent="0.25">
+    <row r="649" spans="1:7" ht="94.5" x14ac:dyDescent="0.25">
       <c r="A649" s="3" t="s">
         <v>182</v>
       </c>
@@ -27729,7 +28660,7 @@
         <v>1763</v>
       </c>
     </row>
-    <row r="650" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A650" s="3" t="s">
         <v>323</v>
       </c>
@@ -27752,7 +28683,7 @@
         <v>1764</v>
       </c>
     </row>
-    <row r="651" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="651" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A651" s="3" t="s">
         <v>207</v>
       </c>
@@ -27775,7 +28706,7 @@
         <v>1765</v>
       </c>
     </row>
-    <row r="652" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="652" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A652" s="3" t="s">
         <v>204</v>
       </c>
@@ -27798,7 +28729,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="653" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A653" s="3" t="s">
         <v>634</v>
       </c>
@@ -27911,6 +28842,949 @@
       </c>
       <c r="G657" s="3" t="s">
         <v>1233</v>
+      </c>
+    </row>
+    <row r="658" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A658" s="3" t="s">
+        <v>4130</v>
+      </c>
+      <c r="B658" t="s">
+        <v>4131</v>
+      </c>
+      <c r="C658" t="s">
+        <v>4132</v>
+      </c>
+      <c r="D658" t="s">
+        <v>4133</v>
+      </c>
+      <c r="E658" s="3" t="s">
+        <v>4134</v>
+      </c>
+      <c r="F658" s="3" t="s">
+        <v>4135</v>
+      </c>
+      <c r="G658" s="3" t="s">
+        <v>4136</v>
+      </c>
+    </row>
+    <row r="659" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A659" s="3" t="s">
+        <v>4138</v>
+      </c>
+      <c r="B659" s="3" t="s">
+        <v>4137</v>
+      </c>
+      <c r="C659" s="3" t="s">
+        <v>4139</v>
+      </c>
+      <c r="D659" s="3" t="s">
+        <v>4140</v>
+      </c>
+      <c r="E659" s="3" t="s">
+        <v>4141</v>
+      </c>
+      <c r="F659" s="3" t="s">
+        <v>4142</v>
+      </c>
+      <c r="G659" s="3" t="s">
+        <v>4143</v>
+      </c>
+    </row>
+    <row r="660" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A660" s="3" t="s">
+        <v>4144</v>
+      </c>
+      <c r="B660" t="s">
+        <v>4145</v>
+      </c>
+      <c r="C660" s="3" t="s">
+        <v>4146</v>
+      </c>
+      <c r="D660" s="3" t="s">
+        <v>4147</v>
+      </c>
+      <c r="E660" s="3" t="s">
+        <v>4148</v>
+      </c>
+      <c r="F660" s="3" t="s">
+        <v>4149</v>
+      </c>
+      <c r="G660" s="3" t="s">
+        <v>4150</v>
+      </c>
+    </row>
+    <row r="661" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A661" s="3" t="s">
+        <v>4151</v>
+      </c>
+      <c r="B661" s="3" t="s">
+        <v>4152</v>
+      </c>
+      <c r="C661" s="3" t="s">
+        <v>4153</v>
+      </c>
+      <c r="D661" s="3" t="s">
+        <v>4154</v>
+      </c>
+      <c r="E661" s="3" t="s">
+        <v>4155</v>
+      </c>
+      <c r="F661" s="3" t="s">
+        <v>4156</v>
+      </c>
+      <c r="G661" s="3" t="s">
+        <v>4157</v>
+      </c>
+    </row>
+    <row r="662" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A662" s="3" t="s">
+        <v>4158</v>
+      </c>
+      <c r="B662" s="3" t="s">
+        <v>4159</v>
+      </c>
+      <c r="C662" s="3" t="s">
+        <v>4158</v>
+      </c>
+      <c r="D662" s="3" t="s">
+        <v>4160</v>
+      </c>
+      <c r="E662" s="3" t="s">
+        <v>4161</v>
+      </c>
+      <c r="F662" s="3" t="s">
+        <v>4162</v>
+      </c>
+      <c r="G662" s="3" t="s">
+        <v>4163</v>
+      </c>
+    </row>
+    <row r="663" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A663" s="3" t="s">
+        <v>4164</v>
+      </c>
+      <c r="B663" s="3" t="s">
+        <v>4165</v>
+      </c>
+      <c r="C663" s="3" t="s">
+        <v>4166</v>
+      </c>
+      <c r="D663" s="3" t="s">
+        <v>4167</v>
+      </c>
+      <c r="E663" s="3" t="s">
+        <v>4168</v>
+      </c>
+      <c r="F663" s="3" t="s">
+        <v>4169</v>
+      </c>
+      <c r="G663" s="3" t="s">
+        <v>4170</v>
+      </c>
+    </row>
+    <row r="664" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A664" s="3" t="s">
+        <v>4171</v>
+      </c>
+      <c r="B664" s="3" t="s">
+        <v>4172</v>
+      </c>
+      <c r="C664" s="3" t="s">
+        <v>4173</v>
+      </c>
+      <c r="D664" s="3" t="s">
+        <v>4174</v>
+      </c>
+      <c r="E664" s="3" t="s">
+        <v>4175</v>
+      </c>
+      <c r="F664" s="3" t="s">
+        <v>4176</v>
+      </c>
+      <c r="G664" s="3" t="s">
+        <v>4177</v>
+      </c>
+    </row>
+    <row r="665" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A665" s="3" t="s">
+        <v>4178</v>
+      </c>
+      <c r="B665" t="s">
+        <v>4210</v>
+      </c>
+      <c r="C665" t="s">
+        <v>4211</v>
+      </c>
+      <c r="D665" s="3" t="s">
+        <v>4212</v>
+      </c>
+      <c r="E665" s="3" t="s">
+        <v>4213</v>
+      </c>
+      <c r="F665" s="3" t="s">
+        <v>4214</v>
+      </c>
+      <c r="G665" s="3" t="s">
+        <v>4215</v>
+      </c>
+    </row>
+    <row r="666" spans="1:7" ht="78.75" x14ac:dyDescent="0.25">
+      <c r="A666" s="3" t="s">
+        <v>4179</v>
+      </c>
+      <c r="B666" s="3" t="s">
+        <v>4216</v>
+      </c>
+      <c r="C666" s="3" t="s">
+        <v>4217</v>
+      </c>
+      <c r="D666" s="3" t="s">
+        <v>4218</v>
+      </c>
+      <c r="E666" s="3" t="s">
+        <v>4219</v>
+      </c>
+      <c r="F666" s="3" t="s">
+        <v>4220</v>
+      </c>
+      <c r="G666" s="3" t="s">
+        <v>4221</v>
+      </c>
+    </row>
+    <row r="667" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A667" s="3" t="s">
+        <v>4180</v>
+      </c>
+      <c r="B667" s="3" t="s">
+        <v>4222</v>
+      </c>
+      <c r="C667" s="3" t="s">
+        <v>4223</v>
+      </c>
+      <c r="D667" s="3" t="s">
+        <v>4224</v>
+      </c>
+      <c r="E667" s="3" t="s">
+        <v>4225</v>
+      </c>
+      <c r="F667" s="3" t="s">
+        <v>4226</v>
+      </c>
+      <c r="G667" s="3" t="s">
+        <v>4227</v>
+      </c>
+    </row>
+    <row r="668" spans="1:7" ht="126" x14ac:dyDescent="0.25">
+      <c r="A668" s="3" t="s">
+        <v>4181</v>
+      </c>
+      <c r="B668" s="3" t="s">
+        <v>4228</v>
+      </c>
+      <c r="C668" s="3" t="s">
+        <v>4229</v>
+      </c>
+      <c r="D668" s="3" t="s">
+        <v>4231</v>
+      </c>
+      <c r="E668" s="3" t="s">
+        <v>4230</v>
+      </c>
+      <c r="F668" s="3" t="s">
+        <v>4232</v>
+      </c>
+      <c r="G668" s="3" t="s">
+        <v>4233</v>
+      </c>
+    </row>
+    <row r="669" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A669" s="3" t="s">
+        <v>4182</v>
+      </c>
+      <c r="B669" s="3" t="s">
+        <v>4234</v>
+      </c>
+      <c r="C669" s="3" t="s">
+        <v>4235</v>
+      </c>
+      <c r="D669" s="3" t="s">
+        <v>4236</v>
+      </c>
+      <c r="E669" s="3" t="s">
+        <v>4237</v>
+      </c>
+      <c r="F669" s="3" t="s">
+        <v>4238</v>
+      </c>
+      <c r="G669" s="3" t="s">
+        <v>4239</v>
+      </c>
+    </row>
+    <row r="670" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A670" s="3" t="s">
+        <v>4183</v>
+      </c>
+      <c r="B670" s="3" t="s">
+        <v>4240</v>
+      </c>
+      <c r="C670" s="3" t="s">
+        <v>4241</v>
+      </c>
+      <c r="D670" s="3" t="s">
+        <v>4242</v>
+      </c>
+      <c r="E670" s="3" t="s">
+        <v>4243</v>
+      </c>
+      <c r="F670" s="3" t="s">
+        <v>4244</v>
+      </c>
+      <c r="G670" s="3" t="s">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="671" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A671" s="3" t="s">
+        <v>4184</v>
+      </c>
+      <c r="B671" s="3" t="s">
+        <v>4246</v>
+      </c>
+      <c r="C671" s="3" t="s">
+        <v>4247</v>
+      </c>
+      <c r="D671" s="3" t="s">
+        <v>4248</v>
+      </c>
+      <c r="E671" s="3" t="s">
+        <v>4249</v>
+      </c>
+      <c r="F671" s="3" t="s">
+        <v>4250</v>
+      </c>
+      <c r="G671" s="3" t="s">
+        <v>4251</v>
+      </c>
+    </row>
+    <row r="672" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A672" s="3" t="s">
+        <v>4185</v>
+      </c>
+      <c r="B672" s="3" t="s">
+        <v>4252</v>
+      </c>
+      <c r="C672" s="3" t="s">
+        <v>4253</v>
+      </c>
+      <c r="D672" s="3" t="s">
+        <v>4254</v>
+      </c>
+      <c r="E672" s="3" t="s">
+        <v>4255</v>
+      </c>
+      <c r="F672" s="3" t="s">
+        <v>4256</v>
+      </c>
+      <c r="G672" s="3" t="s">
+        <v>4257</v>
+      </c>
+    </row>
+    <row r="673" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A673" s="3" t="s">
+        <v>4186</v>
+      </c>
+      <c r="B673" s="3" t="s">
+        <v>4258</v>
+      </c>
+      <c r="C673" s="3" t="s">
+        <v>4259</v>
+      </c>
+      <c r="D673" s="3" t="s">
+        <v>4260</v>
+      </c>
+      <c r="E673" s="3" t="s">
+        <v>4261</v>
+      </c>
+      <c r="F673" s="3" t="s">
+        <v>4262</v>
+      </c>
+      <c r="G673" s="3" t="s">
+        <v>4263</v>
+      </c>
+    </row>
+    <row r="674" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A674" s="3" t="s">
+        <v>4187</v>
+      </c>
+      <c r="B674" s="3" t="s">
+        <v>4264</v>
+      </c>
+      <c r="C674" s="3" t="s">
+        <v>4265</v>
+      </c>
+      <c r="D674" s="3" t="s">
+        <v>4266</v>
+      </c>
+      <c r="E674" s="3" t="s">
+        <v>4267</v>
+      </c>
+      <c r="F674" s="3" t="s">
+        <v>4268</v>
+      </c>
+      <c r="G674" s="3" t="s">
+        <v>4269</v>
+      </c>
+    </row>
+    <row r="675" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A675" s="3" t="s">
+        <v>4188</v>
+      </c>
+      <c r="B675" s="3" t="s">
+        <v>4270</v>
+      </c>
+      <c r="C675" s="3" t="s">
+        <v>4271</v>
+      </c>
+      <c r="D675" s="3" t="s">
+        <v>4272</v>
+      </c>
+      <c r="E675" s="3" t="s">
+        <v>4273</v>
+      </c>
+      <c r="F675" s="3" t="s">
+        <v>4274</v>
+      </c>
+      <c r="G675" s="3" t="s">
+        <v>4275</v>
+      </c>
+    </row>
+    <row r="676" spans="1:7" ht="110.25" x14ac:dyDescent="0.25">
+      <c r="A676" s="3" t="s">
+        <v>4189</v>
+      </c>
+      <c r="B676" s="3" t="s">
+        <v>4276</v>
+      </c>
+      <c r="C676" s="3" t="s">
+        <v>4277</v>
+      </c>
+      <c r="D676" s="3" t="s">
+        <v>4278</v>
+      </c>
+      <c r="E676" s="3" t="s">
+        <v>4279</v>
+      </c>
+      <c r="F676" s="3" t="s">
+        <v>4280</v>
+      </c>
+      <c r="G676" s="3" t="s">
+        <v>4281</v>
+      </c>
+    </row>
+    <row r="677" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A677" s="3" t="s">
+        <v>4190</v>
+      </c>
+      <c r="B677" s="3" t="s">
+        <v>4282</v>
+      </c>
+      <c r="C677" s="3" t="s">
+        <v>4283</v>
+      </c>
+      <c r="D677" s="3" t="s">
+        <v>4284</v>
+      </c>
+      <c r="E677" s="3" t="s">
+        <v>4285</v>
+      </c>
+      <c r="F677" s="3" t="s">
+        <v>4286</v>
+      </c>
+      <c r="G677" s="3" t="s">
+        <v>4287</v>
+      </c>
+    </row>
+    <row r="678" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A678" s="3" t="s">
+        <v>4191</v>
+      </c>
+      <c r="B678" s="3" t="s">
+        <v>4288</v>
+      </c>
+      <c r="C678" s="3" t="s">
+        <v>4289</v>
+      </c>
+      <c r="D678" s="3" t="s">
+        <v>4290</v>
+      </c>
+      <c r="E678" s="3" t="s">
+        <v>4291</v>
+      </c>
+      <c r="F678" s="3" t="s">
+        <v>4292</v>
+      </c>
+      <c r="G678" s="3" t="s">
+        <v>4293</v>
+      </c>
+    </row>
+    <row r="679" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A679" s="3" t="s">
+        <v>4192</v>
+      </c>
+      <c r="B679" s="3" t="s">
+        <v>4294</v>
+      </c>
+      <c r="C679" s="3" t="s">
+        <v>4295</v>
+      </c>
+      <c r="D679" s="3" t="s">
+        <v>4296</v>
+      </c>
+      <c r="E679" s="3" t="s">
+        <v>4297</v>
+      </c>
+      <c r="F679" s="3" t="s">
+        <v>4298</v>
+      </c>
+      <c r="G679" s="3" t="s">
+        <v>4299</v>
+      </c>
+    </row>
+    <row r="680" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A680" s="3" t="s">
+        <v>4193</v>
+      </c>
+      <c r="B680" s="3" t="s">
+        <v>4300</v>
+      </c>
+      <c r="C680" s="3" t="s">
+        <v>4301</v>
+      </c>
+      <c r="D680" s="3" t="s">
+        <v>4302</v>
+      </c>
+      <c r="E680" s="3" t="s">
+        <v>4303</v>
+      </c>
+      <c r="F680" s="3" t="s">
+        <v>4304</v>
+      </c>
+      <c r="G680" s="3" t="s">
+        <v>4305</v>
+      </c>
+    </row>
+    <row r="681" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A681" s="3" t="s">
+        <v>4194</v>
+      </c>
+      <c r="B681" t="s">
+        <v>4306</v>
+      </c>
+      <c r="C681" t="s">
+        <v>4307</v>
+      </c>
+      <c r="D681" s="3" t="s">
+        <v>4308</v>
+      </c>
+      <c r="E681" s="3" t="s">
+        <v>4309</v>
+      </c>
+      <c r="F681" s="3" t="s">
+        <v>4310</v>
+      </c>
+      <c r="G681" s="3" t="s">
+        <v>4311</v>
+      </c>
+    </row>
+    <row r="682" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A682" s="3" t="s">
+        <v>4195</v>
+      </c>
+      <c r="B682" s="3" t="s">
+        <v>4312</v>
+      </c>
+      <c r="C682" s="3" t="s">
+        <v>4313</v>
+      </c>
+      <c r="D682" s="3" t="s">
+        <v>4314</v>
+      </c>
+      <c r="E682" s="3" t="s">
+        <v>4315</v>
+      </c>
+      <c r="F682" s="3" t="s">
+        <v>4316</v>
+      </c>
+      <c r="G682" s="3" t="s">
+        <v>4317</v>
+      </c>
+    </row>
+    <row r="683" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A683" s="3" t="s">
+        <v>4196</v>
+      </c>
+      <c r="B683" s="3" t="s">
+        <v>4318</v>
+      </c>
+      <c r="C683" s="3" t="s">
+        <v>4319</v>
+      </c>
+      <c r="D683" s="3" t="s">
+        <v>4320</v>
+      </c>
+      <c r="E683" s="3" t="s">
+        <v>4321</v>
+      </c>
+      <c r="F683" s="3" t="s">
+        <v>4322</v>
+      </c>
+      <c r="G683" s="3" t="s">
+        <v>4323</v>
+      </c>
+    </row>
+    <row r="684" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A684" s="3" t="s">
+        <v>4197</v>
+      </c>
+      <c r="B684" s="3" t="s">
+        <v>4324</v>
+      </c>
+      <c r="C684" s="3" t="s">
+        <v>4325</v>
+      </c>
+      <c r="D684" s="3" t="s">
+        <v>4326</v>
+      </c>
+      <c r="E684" s="3" t="s">
+        <v>4327</v>
+      </c>
+      <c r="F684" s="3" t="s">
+        <v>4328</v>
+      </c>
+      <c r="G684" s="3" t="s">
+        <v>4329</v>
+      </c>
+    </row>
+    <row r="685" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A685" s="3" t="s">
+        <v>4198</v>
+      </c>
+      <c r="B685" s="3" t="s">
+        <v>4330</v>
+      </c>
+      <c r="C685" s="3" t="s">
+        <v>4331</v>
+      </c>
+      <c r="D685" s="3" t="s">
+        <v>4332</v>
+      </c>
+      <c r="E685" s="3" t="s">
+        <v>4333</v>
+      </c>
+      <c r="F685" s="3" t="s">
+        <v>4334</v>
+      </c>
+      <c r="G685" s="3" t="s">
+        <v>4335</v>
+      </c>
+    </row>
+    <row r="686" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A686" s="3" t="s">
+        <v>4199</v>
+      </c>
+      <c r="B686" s="3" t="s">
+        <v>4336</v>
+      </c>
+      <c r="C686" s="3" t="s">
+        <v>4337</v>
+      </c>
+      <c r="D686" s="3" t="s">
+        <v>4338</v>
+      </c>
+      <c r="E686" s="3" t="s">
+        <v>4339</v>
+      </c>
+      <c r="F686" s="3" t="s">
+        <v>4340</v>
+      </c>
+      <c r="G686" s="3" t="s">
+        <v>4341</v>
+      </c>
+    </row>
+    <row r="687" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A687" s="3" t="s">
+        <v>4200</v>
+      </c>
+      <c r="B687" s="3" t="s">
+        <v>4342</v>
+      </c>
+      <c r="C687" s="3" t="s">
+        <v>4343</v>
+      </c>
+      <c r="D687" s="3" t="s">
+        <v>4344</v>
+      </c>
+      <c r="E687" s="3" t="s">
+        <v>4345</v>
+      </c>
+      <c r="F687" s="3" t="s">
+        <v>4346</v>
+      </c>
+      <c r="G687" s="3" t="s">
+        <v>4347</v>
+      </c>
+    </row>
+    <row r="688" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A688" s="3" t="s">
+        <v>4201</v>
+      </c>
+      <c r="B688" s="3" t="s">
+        <v>4348</v>
+      </c>
+      <c r="C688" s="3" t="s">
+        <v>4349</v>
+      </c>
+      <c r="D688" s="3" t="s">
+        <v>4350</v>
+      </c>
+      <c r="E688" s="3" t="s">
+        <v>4351</v>
+      </c>
+      <c r="F688" s="3" t="s">
+        <v>4352</v>
+      </c>
+      <c r="G688" s="3" t="s">
+        <v>4353</v>
+      </c>
+    </row>
+    <row r="689" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A689" s="3" t="s">
+        <v>4202</v>
+      </c>
+      <c r="B689" s="3" t="s">
+        <v>4354</v>
+      </c>
+      <c r="C689" s="3" t="s">
+        <v>4355</v>
+      </c>
+      <c r="D689" s="3" t="s">
+        <v>4356</v>
+      </c>
+      <c r="E689" s="3" t="s">
+        <v>4357</v>
+      </c>
+      <c r="F689" s="3" t="s">
+        <v>4358</v>
+      </c>
+      <c r="G689" s="3" t="s">
+        <v>4359</v>
+      </c>
+    </row>
+    <row r="690" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A690" s="3" t="s">
+        <v>4203</v>
+      </c>
+      <c r="B690" s="3" t="s">
+        <v>4360</v>
+      </c>
+      <c r="C690" s="3" t="s">
+        <v>4361</v>
+      </c>
+      <c r="D690" s="3" t="s">
+        <v>4372</v>
+      </c>
+      <c r="E690" s="3" t="s">
+        <v>4363</v>
+      </c>
+      <c r="F690" s="3" t="s">
+        <v>4362</v>
+      </c>
+      <c r="G690" s="3" t="s">
+        <v>4364</v>
+      </c>
+    </row>
+    <row r="691" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A691" s="3" t="s">
+        <v>4204</v>
+      </c>
+      <c r="B691" s="3" t="s">
+        <v>4365</v>
+      </c>
+      <c r="C691" s="3" t="s">
+        <v>4366</v>
+      </c>
+      <c r="D691" s="3" t="s">
+        <v>4367</v>
+      </c>
+      <c r="E691" s="3" t="s">
+        <v>4368</v>
+      </c>
+      <c r="F691" s="3" t="s">
+        <v>4369</v>
+      </c>
+      <c r="G691" s="3" t="s">
+        <v>4365</v>
+      </c>
+    </row>
+    <row r="692" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A692" s="3" t="s">
+        <v>4205</v>
+      </c>
+      <c r="B692" s="3" t="s">
+        <v>4370</v>
+      </c>
+      <c r="C692" s="3" t="s">
+        <v>4371</v>
+      </c>
+      <c r="D692" s="3" t="s">
+        <v>4373</v>
+      </c>
+      <c r="E692" s="3" t="s">
+        <v>4374</v>
+      </c>
+      <c r="F692" s="3" t="s">
+        <v>4375</v>
+      </c>
+      <c r="G692" s="3" t="s">
+        <v>4376</v>
+      </c>
+    </row>
+    <row r="693" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A693" s="3" t="s">
+        <v>4206</v>
+      </c>
+      <c r="B693" s="3" t="s">
+        <v>4377</v>
+      </c>
+      <c r="C693" s="3" t="s">
+        <v>4378</v>
+      </c>
+      <c r="D693" s="3" t="s">
+        <v>4379</v>
+      </c>
+      <c r="E693" s="3" t="s">
+        <v>4380</v>
+      </c>
+      <c r="F693" s="3" t="s">
+        <v>4381</v>
+      </c>
+      <c r="G693" s="3" t="s">
+        <v>4382</v>
+      </c>
+    </row>
+    <row r="694" spans="1:7" ht="63" x14ac:dyDescent="0.25">
+      <c r="A694" s="3" t="s">
+        <v>4207</v>
+      </c>
+      <c r="B694" s="3" t="s">
+        <v>4383</v>
+      </c>
+      <c r="C694" s="3" t="s">
+        <v>4384</v>
+      </c>
+      <c r="D694" s="3" t="s">
+        <v>4385</v>
+      </c>
+      <c r="E694" s="3" t="s">
+        <v>4386</v>
+      </c>
+      <c r="F694" s="3" t="s">
+        <v>4387</v>
+      </c>
+      <c r="G694" s="3" t="s">
+        <v>4388</v>
+      </c>
+    </row>
+    <row r="695" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A695" s="3" t="s">
+        <v>4208</v>
+      </c>
+      <c r="B695" s="3" t="s">
+        <v>4389</v>
+      </c>
+      <c r="C695" s="3" t="s">
+        <v>4390</v>
+      </c>
+      <c r="D695" s="3" t="s">
+        <v>4391</v>
+      </c>
+      <c r="E695" s="3" t="s">
+        <v>4392</v>
+      </c>
+      <c r="F695" s="3" t="s">
+        <v>4393</v>
+      </c>
+      <c r="G695" s="3" t="s">
+        <v>4394</v>
+      </c>
+    </row>
+    <row r="696" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A696" s="3" t="s">
+        <v>4209</v>
+      </c>
+      <c r="B696" s="3" t="s">
+        <v>4395</v>
+      </c>
+      <c r="C696" s="3" t="s">
+        <v>4396</v>
+      </c>
+      <c r="D696" s="3" t="s">
+        <v>3313</v>
+      </c>
+      <c r="E696" s="3" t="s">
+        <v>4397</v>
+      </c>
+      <c r="F696" s="3" t="s">
+        <v>4398</v>
+      </c>
+      <c r="G696" s="3" t="s">
+        <v>4395</v>
+      </c>
+    </row>
+    <row r="697" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A697" s="3" t="s">
+        <v>4399</v>
+      </c>
+      <c r="B697" t="s">
+        <v>4400</v>
+      </c>
+      <c r="C697" s="3" t="s">
+        <v>4401</v>
+      </c>
+      <c r="D697" s="3" t="s">
+        <v>4402</v>
+      </c>
+      <c r="E697" s="3" t="s">
+        <v>4403</v>
+      </c>
+      <c r="F697" s="3" t="s">
+        <v>4404</v>
+      </c>
+      <c r="G697" s="3" t="s">
+        <v>4405</v>
+      </c>
+    </row>
+    <row r="698" spans="1:7" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A698" s="3" t="s">
+        <v>4406</v>
+      </c>
+      <c r="B698" s="3" t="s">
+        <v>4407</v>
+      </c>
+      <c r="C698" s="3" t="s">
+        <v>4408</v>
+      </c>
+      <c r="D698" s="3" t="s">
+        <v>4409</v>
+      </c>
+      <c r="E698" s="3" t="s">
+        <v>4410</v>
+      </c>
+      <c r="F698" s="3" t="s">
+        <v>4411</v>
+      </c>
+      <c r="G698" s="3" t="s">
+        <v>4412</v>
       </c>
     </row>
   </sheetData>
